--- a/data/lyceum1524.xlsx
+++ b/data/lyceum1524.xlsx
@@ -456,7 +456,7 @@
     <row r="3">
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>11A</t>
         </is>
       </c>
       <c r="D3" s="1" t="n"/>
@@ -486,7 +486,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nadezhda Ivanovna</t>
+          <t>Ivanov</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="3">
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>11A</t>
         </is>
       </c>
       <c r="D3" s="1" t="n"/>

--- a/data/lyceum1524.xlsx
+++ b/data/lyceum1524.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Учебный план" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Учителя" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Типы аудиторий" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -57,11 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C2:F3"/>
+  <dimension ref="C2:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,22 +448,226 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Matematika</t>
+          <t>Русский язык</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Phizika</t>
+          <t>Литература</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Алгебра</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Геометрия</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Информатика</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Обществознание</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>ОБЖ</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Химия</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Физкультура</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>История</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Английский язык</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>География</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Биология</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Дискретная математика</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>11A</t>
+          <t>8М</t>
         </is>
       </c>
       <c r="D3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>8Н</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>8О</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>10М</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>10Н</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>10О</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>10П</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>10Р</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>10С</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>9М</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>9Н</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>9О</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>9П</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>9Р</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>10М</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>10Н</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>10О</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>10П</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>10Р</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -472,7 +680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F3"/>
+  <dimension ref="A2:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +694,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ivanov</t>
+          <t>Лялина</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -496,29 +704,892 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Matematika</t>
+          <t>Русский язык</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Phizika</t>
+          <t>Литература</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Алгебра</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Геометрия</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Информатика</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Обществознание</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>ОБЖ</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Химия</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Физкультура</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>История</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Английский язык</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>География</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Биология</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Дискретная математика</t>
         </is>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Белова (общ)</t>
+        </is>
+      </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>11A</t>
+          <t>8М</t>
         </is>
       </c>
       <c r="D3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Перминов</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>8Н</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Глухарева</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>8О</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Алексеева</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>10М</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Зарбаилова</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>10Н</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Клопиков</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>10О</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Смирнова</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>10П</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Кокорева</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>10Р</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Холин</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>10С</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Богдановская</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>9М</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Демченко</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>9Н</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Хомутова</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>9О</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Королев</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>9П</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Арефьева</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>9Р</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Назаров</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>10М</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Дударев</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>10Н</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Кручинина</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>10О</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Янков</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>10П</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Гусева Н.Е.</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>10Р</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Мареева</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Гуров</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Рудаков</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Михайлова</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Гусева Н.Н.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Мамедов</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Васильев</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Шуваева</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Савушкина</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Шинкарева</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Лещикова</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Залужная</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Столярова</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Чусова</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Камышева</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Донскова</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Бортко</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Зотова</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Абзалимов</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Череповская</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Кувшинова</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Князева</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Фокин</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Морозова</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Мишина</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Лукина</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Соболевский</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Устинова</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Спиридонова</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Резванов</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="E3 F3" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 I3 I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19 K20 K21 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21 M3 M4 M5 M6 M7 M8 M9 M10 M11 M12 M13 M14 M15 M16 M17 M18 M19 M20 M21 N3 N4 N5 N6 N7 N8 N9 N10 N11 N12 N13 N14 N15 N16 N17 N18 N19 N20 N21 O3 O4 O5 O6 O7 O8 O9 O10 O11 O12 O13 O14 O15 O16 O17 O18 O19 O20 O21 P3 P4 P5 P6 P7 P8 P9 P10 P11 P12 P13 P14 P15 P16 P17 P18 P19 P20 P21 Q3 Q4 Q5 Q6 Q7 Q8 Q9 Q10 Q11 Q12 Q13 Q14 Q15 Q16 Q17 Q18 Q19 Q20 Q21 R3 R4 R5 R6 R7 R8 R9 R10 R11 R12 R13 R14 R15 R16 R17 R18 R19 R20 R21" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=$A:$A</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Типы аудиторий
+ введите в столбце "B",
+начиная с ячейки B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Русский язык</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Литература</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Алгебра</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Геометрия</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Информатика</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Обществознание</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ОБЖ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Химия</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Спортзал</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Физкультура</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>История</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Английский язык</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>География</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Биология</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Дискретная математика</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>229с</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=$B$3:$B$120</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>